--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H2">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.725961213483085</v>
+        <v>0.8426706666666667</v>
       </c>
       <c r="N2">
-        <v>0.725961213483085</v>
+        <v>2.528012</v>
       </c>
       <c r="O2">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="P2">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="Q2">
-        <v>14.71629109361512</v>
+        <v>5.559208777857333</v>
       </c>
       <c r="R2">
-        <v>14.71629109361512</v>
+        <v>50.03287900071599</v>
       </c>
       <c r="S2">
-        <v>0.03913978200942606</v>
+        <v>0.008845086999114286</v>
       </c>
       <c r="T2">
-        <v>0.03913978200942606</v>
+        <v>0.008845086999114286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H3">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83474881096134</v>
+        <v>2.843693666666667</v>
       </c>
       <c r="N3">
-        <v>2.83474881096134</v>
+        <v>8.531081</v>
       </c>
       <c r="O3">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="P3">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="Q3">
-        <v>57.46448695135203</v>
+        <v>18.76021964287034</v>
       </c>
       <c r="R3">
-        <v>57.46448695135203</v>
+        <v>168.841976785833</v>
       </c>
       <c r="S3">
-        <v>0.1528338545528806</v>
+        <v>0.02984881149357318</v>
       </c>
       <c r="T3">
-        <v>0.1528338545528806</v>
+        <v>0.02984881149357317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H4">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I4">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J4">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210901544266123</v>
+        <v>0.430413</v>
       </c>
       <c r="N4">
-        <v>0.210901544266123</v>
+        <v>1.291239</v>
       </c>
       <c r="O4">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="P4">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="Q4">
-        <v>4.275281461143154</v>
+        <v>2.839490945103</v>
       </c>
       <c r="R4">
-        <v>4.275281461143154</v>
+        <v>25.555418505927</v>
       </c>
       <c r="S4">
-        <v>0.01137063566856759</v>
+        <v>0.004517827166820938</v>
       </c>
       <c r="T4">
-        <v>0.01137063566856759</v>
+        <v>0.004517827166820938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H5">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I5">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J5">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.41901167122194</v>
+        <v>7.406534333333333</v>
       </c>
       <c r="N5">
-        <v>5.41901167122194</v>
+        <v>22.219603</v>
       </c>
       <c r="O5">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="P5">
-        <v>0.5896239601768014</v>
+        <v>0.6427435573714558</v>
       </c>
       <c r="Q5">
-        <v>109.8512588720526</v>
+        <v>48.86187725299767</v>
       </c>
       <c r="R5">
-        <v>109.8512588720526</v>
+        <v>439.756895276979</v>
       </c>
       <c r="S5">
-        <v>0.2921629028919246</v>
+        <v>0.07774263793873637</v>
       </c>
       <c r="T5">
-        <v>0.2921629028919246</v>
+        <v>0.07774263793873637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H6">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J6">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.725961213483085</v>
+        <v>0.8426706666666667</v>
       </c>
       <c r="N6">
-        <v>0.725961213483085</v>
+        <v>2.528012</v>
       </c>
       <c r="O6">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="P6">
-        <v>0.07898933451312032</v>
+        <v>0.07312747333774275</v>
       </c>
       <c r="Q6">
-        <v>14.98315995866895</v>
+        <v>17.74089160824889</v>
       </c>
       <c r="R6">
-        <v>14.98315995866895</v>
+        <v>159.66802447424</v>
       </c>
       <c r="S6">
-        <v>0.03984955250369425</v>
+        <v>0.02822698984464099</v>
       </c>
       <c r="T6">
-        <v>0.03984955250369425</v>
+        <v>0.02822698984464099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H7">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J7">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.83474881096134</v>
+        <v>2.843693666666667</v>
       </c>
       <c r="N7">
-        <v>2.83474881096134</v>
+        <v>8.531081</v>
       </c>
       <c r="O7">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="P7">
-        <v>0.3084392360514349</v>
+        <v>0.2467774671835513</v>
       </c>
       <c r="Q7">
-        <v>58.50656218050141</v>
+        <v>59.86877567123556</v>
       </c>
       <c r="R7">
-        <v>58.50656218050141</v>
+        <v>538.8189810411201</v>
       </c>
       <c r="S7">
-        <v>0.1556053814985542</v>
+        <v>0.09525537724932071</v>
       </c>
       <c r="T7">
-        <v>0.1556053814985542</v>
+        <v>0.09525537724932069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H8">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J8">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.210901544266123</v>
+        <v>0.430413</v>
       </c>
       <c r="N8">
-        <v>0.210901544266123</v>
+        <v>1.291239</v>
       </c>
       <c r="O8">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="P8">
-        <v>0.02294746925864325</v>
+        <v>0.03735150210725013</v>
       </c>
       <c r="Q8">
-        <v>4.352810473314976</v>
+        <v>9.061559493919999</v>
       </c>
       <c r="R8">
-        <v>4.352810473314976</v>
+        <v>81.55403544528001</v>
       </c>
       <c r="S8">
-        <v>0.01157683359007566</v>
+        <v>0.01441757006691597</v>
       </c>
       <c r="T8">
-        <v>0.01157683359007566</v>
+        <v>0.01441757006691597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H9">
+        <v>63.15952</v>
+      </c>
+      <c r="I9">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J9">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.406534333333333</v>
+      </c>
+      <c r="N9">
+        <v>22.219603</v>
+      </c>
+      <c r="O9">
+        <v>0.6427435573714558</v>
+      </c>
+      <c r="P9">
+        <v>0.6427435573714558</v>
+      </c>
+      <c r="Q9">
+        <v>155.9310511189511</v>
+      </c>
+      <c r="R9">
+        <v>1403.37946007056</v>
+      </c>
+      <c r="S9">
+        <v>0.2480971246311151</v>
+      </c>
+      <c r="T9">
+        <v>0.2480971246311151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H10">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8426706666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.528012</v>
+      </c>
+      <c r="O10">
+        <v>0.07312747333774275</v>
+      </c>
+      <c r="P10">
+        <v>0.07312747333774275</v>
+      </c>
+      <c r="Q10">
+        <v>22.66110855648711</v>
+      </c>
+      <c r="R10">
+        <v>203.949977008384</v>
+      </c>
+      <c r="S10">
+        <v>0.03605539649398747</v>
+      </c>
+      <c r="T10">
+        <v>0.03605539649398747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>20.6390640166316</v>
-      </c>
-      <c r="H9">
-        <v>20.6390640166316</v>
-      </c>
-      <c r="I9">
-        <v>0.5044928248772009</v>
-      </c>
-      <c r="J9">
-        <v>0.5044928248772009</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.41901167122194</v>
-      </c>
-      <c r="N9">
-        <v>5.41901167122194</v>
-      </c>
-      <c r="O9">
-        <v>0.5896239601768014</v>
-      </c>
-      <c r="P9">
-        <v>0.5896239601768014</v>
-      </c>
-      <c r="Q9">
-        <v>111.8433287892234</v>
-      </c>
-      <c r="R9">
-        <v>111.8433287892234</v>
-      </c>
-      <c r="S9">
-        <v>0.2974610572848768</v>
-      </c>
-      <c r="T9">
-        <v>0.2974610572848768</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H11">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J11">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.843693666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.531081</v>
+      </c>
+      <c r="O11">
+        <v>0.2467774671835513</v>
+      </c>
+      <c r="P11">
+        <v>0.2467774671835513</v>
+      </c>
+      <c r="Q11">
+        <v>76.47264041673245</v>
+      </c>
+      <c r="R11">
+        <v>688.253763750592</v>
+      </c>
+      <c r="S11">
+        <v>0.1216732784406574</v>
+      </c>
+      <c r="T11">
+        <v>0.1216732784406574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H12">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I12">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J12">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.430413</v>
+      </c>
+      <c r="N12">
+        <v>1.291239</v>
+      </c>
+      <c r="O12">
+        <v>0.03735150210725013</v>
+      </c>
+      <c r="P12">
+        <v>0.03735150210725013</v>
+      </c>
+      <c r="Q12">
+        <v>11.574670987072</v>
+      </c>
+      <c r="R12">
+        <v>104.172038883648</v>
+      </c>
+      <c r="S12">
+        <v>0.01841610487351322</v>
+      </c>
+      <c r="T12">
+        <v>0.01841610487351322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H13">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J13">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.406534333333333</v>
+      </c>
+      <c r="N13">
+        <v>22.219603</v>
+      </c>
+      <c r="O13">
+        <v>0.6427435573714558</v>
+      </c>
+      <c r="P13">
+        <v>0.6427435573714558</v>
+      </c>
+      <c r="Q13">
+        <v>199.1766002950329</v>
+      </c>
+      <c r="R13">
+        <v>1792.589402655296</v>
+      </c>
+      <c r="S13">
+        <v>0.3169037948016044</v>
+      </c>
+      <c r="T13">
+        <v>0.3169037948016044</v>
       </c>
     </row>
   </sheetData>
